--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketCover.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketCover.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"> #SET TABLE COLUMNS 8 @""//套单表，就是打印在已经有表格的纸上的~</t>
   </si>
@@ -91,94 +91,6 @@
         <charset val="134"/>
       </rPr>
       <t>o</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ticket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>estination</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ticket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>actory</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -340,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -429,7 +341,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -447,20 +359,20 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,7 +469,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,7 +681,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -825,15 +737,11 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -852,8 +760,8 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="16" t="s">
-        <v>12</v>
+      <c r="B7" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>2</v>
@@ -931,20 +839,20 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>14</v>
+      <c r="B13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>16</v>
+      <c r="G13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketCover.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketCover.xlsx
@@ -21,21 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"> #SET TABLE COLUMNS 8 @""//套单表，就是打印在已经有表格的纸上的~</t>
   </si>
   <si>
     <t>出库单编号：</t>
-  </si>
-  <si>
-    <t>@time==null?"":time.getFullYear()</t>
-  </si>
-  <si>
-    <t>@time==null?"":time.getMonth()+1</t>
-  </si>
-  <si>
-    <t>@time==null?"":time.getDate()</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -244,6 +235,10 @@
       </rPr>
       <t>ealAmount</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@time</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -347,12 +342,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -368,11 +357,17 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,7 +676,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -704,8 +699,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -737,11 +732,11 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -760,18 +755,14 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -806,7 +797,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -824,11 +815,11 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>8</v>
+      <c r="A12" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -839,20 +830,20 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
